--- a/lists_version1.xlsx
+++ b/lists_version1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A46FE-45C6-41E1-B7FE-A895B4C10E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25861EE-C47B-4E32-94DC-A615E355C1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11412" yWindow="648" windowWidth="11628" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Lists</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>repswitch_V1L4.xlsx</t>
-  </si>
-  <si>
-    <t>repswitch_V2L4.xlsx</t>
   </si>
 </sst>
 </file>
@@ -110,8 +107,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{367F902D-0D3A-4854-9D98-0C71022DAD17}" name="Table1" displayName="Table1" ref="A1:A6" totalsRowShown="0">
-  <autoFilter ref="A1:A6" xr:uid="{367F902D-0D3A-4854-9D98-0C71022DAD17}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{367F902D-0D3A-4854-9D98-0C71022DAD17}" name="Table1" displayName="Table1" ref="A1:A5" totalsRowShown="0">
+  <autoFilter ref="A1:A5" xr:uid="{367F902D-0D3A-4854-9D98-0C71022DAD17}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{431AF867-EA21-467C-89E0-7AD264E332EA}" name="Lists"/>
   </tableColumns>
@@ -416,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -452,11 +449,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
